--- a/Example Excel/Madness.xlsx
+++ b/Example Excel/Madness.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suoweihu/Documents/GitHub/Excel-Online-App/Example Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9426FBA-EF6C-1E47-85D7-3C1E5E7E7790}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB9B227-7F21-3049-A8B3-81C371392DBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28020" windowHeight="13640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1480" windowWidth="28020" windowHeight="13640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>行号</t>
   </si>
@@ -116,6 +127,15 @@
   </si>
   <si>
     <t>列 31</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>x+y</t>
   </si>
 </sst>
 </file>
@@ -438,774 +458,2103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF133"/>
+  <dimension ref="A1:AI133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="F111" sqref="F111"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" customWidth="1"/>
     <col min="7" max="7" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AE1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AF1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AG1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AH1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AI1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>733101</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <f>C2+B2</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>733121</v>
       </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <f>C3+B3</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>733131</v>
       </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D67" si="0">C4+B4</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>733141</v>
       </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>733151</v>
       </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>733101</v>
       </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>733121</v>
       </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>733131</v>
       </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>733141</v>
       </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>733151</v>
       </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>733131</v>
       </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>733141</v>
       </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>733151</v>
       </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>733101</v>
       </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>733121</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>733131</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>733141</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>733101</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>733121</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>733131</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>733141</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>22</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>733151</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>23</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>733101</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>24</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>733121</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>25</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>733131</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>26</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>733141</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>27</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>733151</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>28</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>733101</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>29</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>733121</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>30</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>733131</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>31</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>733141</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>32</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>733151</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>33</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>733131</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>34</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>733141</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>35</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>733151</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>36</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>733101</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>37</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>733121</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>38</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>733131</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>39</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>733141</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>40</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>733101</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>41</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>733121</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <v>42</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>733131</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <v>43</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>733141</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44">
+        <v>44</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>733151</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45">
+        <v>45</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>733101</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <v>46</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>733121</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <v>47</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>733131</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48">
+        <v>48</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>733141</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <v>49</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>733151</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50">
+        <v>50</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>733101</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51">
+        <v>51</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>733121</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52">
+        <v>52</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>733131</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53">
+        <v>53</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>733141</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="C54">
+        <v>54</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>733151</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>54</v>
+      </c>
+      <c r="C55">
+        <v>55</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>733131</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="C56">
+        <v>56</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>733141</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <v>56</v>
+      </c>
+      <c r="C57">
+        <v>57</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>733151</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B58">
+        <v>57</v>
+      </c>
+      <c r="C58">
+        <v>58</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>733101</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B59">
+        <v>58</v>
+      </c>
+      <c r="C59">
+        <v>59</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>733121</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <v>59</v>
+      </c>
+      <c r="C60">
+        <v>60</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>733131</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B61">
+        <v>60</v>
+      </c>
+      <c r="C61">
+        <v>61</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>733141</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B62">
+        <v>61</v>
+      </c>
+      <c r="C62">
+        <v>62</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>733101</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B63">
+        <v>62</v>
+      </c>
+      <c r="C63">
+        <v>63</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>733121</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B64">
+        <v>63</v>
+      </c>
+      <c r="C64">
+        <v>64</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>733131</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B65">
+        <v>64</v>
+      </c>
+      <c r="C65">
+        <v>65</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>733141</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B66">
+        <v>65</v>
+      </c>
+      <c r="C66">
+        <v>66</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>733151</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B67">
+        <v>66</v>
+      </c>
+      <c r="C67">
+        <v>67</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="0"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>733101</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <v>67</v>
+      </c>
+      <c r="C68">
+        <v>68</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ref="D68:D131" si="1">C68+B68</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>733121</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B69">
+        <v>68</v>
+      </c>
+      <c r="C69">
+        <v>69</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="1"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>733131</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B70">
+        <v>69</v>
+      </c>
+      <c r="C70">
+        <v>70</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="1"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>733141</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B71">
+        <v>70</v>
+      </c>
+      <c r="C71">
+        <v>71</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="1"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>733151</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B72">
+        <v>71</v>
+      </c>
+      <c r="C72">
+        <v>72</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="1"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>733101</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B73">
+        <v>72</v>
+      </c>
+      <c r="C73">
+        <v>73</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="1"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>733121</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B74">
+        <v>73</v>
+      </c>
+      <c r="C74">
+        <v>74</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="1"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>733131</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B75">
+        <v>74</v>
+      </c>
+      <c r="C75">
+        <v>75</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="1"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>733141</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B76">
+        <v>75</v>
+      </c>
+      <c r="C76">
+        <v>76</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="1"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>733151</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B77">
+        <v>76</v>
+      </c>
+      <c r="C77">
+        <v>77</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="1"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>733131</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B78">
+        <v>77</v>
+      </c>
+      <c r="C78">
+        <v>78</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="1"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>733141</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B79">
+        <v>78</v>
+      </c>
+      <c r="C79">
+        <v>79</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="1"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>733151</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B80">
+        <v>79</v>
+      </c>
+      <c r="C80">
+        <v>80</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="1"/>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>733101</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B81">
+        <v>80</v>
+      </c>
+      <c r="C81">
+        <v>81</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="1"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>733121</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B82">
+        <v>81</v>
+      </c>
+      <c r="C82">
+        <v>82</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="1"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>733131</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B83">
+        <v>82</v>
+      </c>
+      <c r="C83">
+        <v>83</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>733141</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B84">
+        <v>83</v>
+      </c>
+      <c r="C84">
+        <v>84</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="1"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>733101</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B85">
+        <v>84</v>
+      </c>
+      <c r="C85">
+        <v>85</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="1"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>733121</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B86">
+        <v>85</v>
+      </c>
+      <c r="C86">
+        <v>86</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="1"/>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>733131</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B87">
+        <v>86</v>
+      </c>
+      <c r="C87">
+        <v>87</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="1"/>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>733141</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B88">
+        <v>87</v>
+      </c>
+      <c r="C88">
+        <v>88</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="1"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>733151</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B89">
+        <v>88</v>
+      </c>
+      <c r="C89">
+        <v>89</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="1"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>733101</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B90">
+        <v>89</v>
+      </c>
+      <c r="C90">
+        <v>90</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="1"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>733121</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B91">
+        <v>90</v>
+      </c>
+      <c r="C91">
+        <v>91</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="1"/>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>733131</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B92">
+        <v>91</v>
+      </c>
+      <c r="C92">
+        <v>92</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="1"/>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>733141</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B93">
+        <v>92</v>
+      </c>
+      <c r="C93">
+        <v>93</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="1"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>733151</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B94">
+        <v>93</v>
+      </c>
+      <c r="C94">
+        <v>94</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="1"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>733101</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B95">
+        <v>94</v>
+      </c>
+      <c r="C95">
+        <v>95</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="1"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>733121</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B96">
+        <v>95</v>
+      </c>
+      <c r="C96">
+        <v>96</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="1"/>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>733131</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B97">
+        <v>96</v>
+      </c>
+      <c r="C97">
+        <v>97</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="1"/>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>733141</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B98">
+        <v>97</v>
+      </c>
+      <c r="C98">
+        <v>98</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="1"/>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>733151</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B99">
+        <v>98</v>
+      </c>
+      <c r="C99">
+        <v>99</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="1"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>733131</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B100">
+        <v>99</v>
+      </c>
+      <c r="C100">
+        <v>100</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="1"/>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>733141</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B101">
+        <v>100</v>
+      </c>
+      <c r="C101">
+        <v>101</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="1"/>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>733151</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B102">
+        <v>101</v>
+      </c>
+      <c r="C102">
+        <v>102</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="1"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>733101</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B103">
+        <v>102</v>
+      </c>
+      <c r="C103">
+        <v>103</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="1"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>733121</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B104">
+        <v>103</v>
+      </c>
+      <c r="C104">
+        <v>104</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="1"/>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>733131</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B105">
+        <v>104</v>
+      </c>
+      <c r="C105">
+        <v>105</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="1"/>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>733141</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B106">
+        <v>105</v>
+      </c>
+      <c r="C106">
+        <v>106</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="1"/>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>733101</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B107">
+        <v>106</v>
+      </c>
+      <c r="C107">
+        <v>107</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="1"/>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>733121</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B108">
+        <v>107</v>
+      </c>
+      <c r="C108">
+        <v>108</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="1"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>733131</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B109">
+        <v>108</v>
+      </c>
+      <c r="C109">
+        <v>109</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="1"/>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>733141</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B110">
+        <v>109</v>
+      </c>
+      <c r="C110">
+        <v>110</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="1"/>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>733151</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B111">
+        <v>110</v>
+      </c>
+      <c r="C111">
+        <v>111</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="1"/>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>733101</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B112">
+        <v>111</v>
+      </c>
+      <c r="C112">
+        <v>112</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="1"/>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>733121</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B113">
+        <v>112</v>
+      </c>
+      <c r="C113">
+        <v>113</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="1"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>733131</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B114">
+        <v>113</v>
+      </c>
+      <c r="C114">
+        <v>114</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="1"/>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>733141</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B115">
+        <v>114</v>
+      </c>
+      <c r="C115">
+        <v>115</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="1"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>733151</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B116">
+        <v>115</v>
+      </c>
+      <c r="C116">
+        <v>116</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="1"/>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>733101</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B117">
+        <v>116</v>
+      </c>
+      <c r="C117">
+        <v>117</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="1"/>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>733121</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B118">
+        <v>117</v>
+      </c>
+      <c r="C118">
+        <v>118</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="1"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>733131</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B119">
+        <v>118</v>
+      </c>
+      <c r="C119">
+        <v>119</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="1"/>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>733141</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B120">
+        <v>119</v>
+      </c>
+      <c r="C120">
+        <v>120</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="1"/>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>733151</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B121">
+        <v>120</v>
+      </c>
+      <c r="C121">
+        <v>121</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="1"/>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>733131</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B122">
+        <v>121</v>
+      </c>
+      <c r="C122">
+        <v>122</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="1"/>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>733141</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B123">
+        <v>122</v>
+      </c>
+      <c r="C123">
+        <v>123</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="1"/>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>733151</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B124">
+        <v>123</v>
+      </c>
+      <c r="C124">
+        <v>124</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="1"/>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>733101</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B125">
+        <v>124</v>
+      </c>
+      <c r="C125">
+        <v>125</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="1"/>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>733121</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B126">
+        <v>125</v>
+      </c>
+      <c r="C126">
+        <v>126</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="1"/>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>733131</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B127">
+        <v>126</v>
+      </c>
+      <c r="C127">
+        <v>127</v>
+      </c>
+      <c r="D127">
+        <f t="shared" si="1"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>733141</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B128">
+        <v>127</v>
+      </c>
+      <c r="C128">
+        <v>128</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>733101</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B129">
+        <v>128</v>
+      </c>
+      <c r="C129">
+        <v>129</v>
+      </c>
+      <c r="D129">
+        <f t="shared" si="1"/>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>733121</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B130">
+        <v>129</v>
+      </c>
+      <c r="C130">
+        <v>130</v>
+      </c>
+      <c r="D130">
+        <f t="shared" si="1"/>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>733131</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B131">
+        <v>130</v>
+      </c>
+      <c r="C131">
+        <v>131</v>
+      </c>
+      <c r="D131">
+        <f t="shared" si="1"/>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>733141</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B132">
+        <v>131</v>
+      </c>
+      <c r="C132">
+        <v>132</v>
+      </c>
+      <c r="D132">
+        <f t="shared" ref="D132:D133" si="2">C132+B132</f>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>733151</v>
+      </c>
+      <c r="B133">
+        <v>132</v>
+      </c>
+      <c r="C133">
+        <v>133</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="2"/>
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/Example Excel/Madness.xlsx
+++ b/Example Excel/Madness.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suoweihu/Documents/GitHub/Excel-Online-App/Example Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB9B227-7F21-3049-A8B3-81C371392DBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C81062D-4FCC-294C-A377-B9E9EFAB9848}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1520" yWindow="1480" windowWidth="28020" windowHeight="13640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -458,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI133"/>
+  <dimension ref="A1:AI152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="D142" sqref="D142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2557,6 +2557,101 @@
         <v>265</v>
       </c>
     </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Example Excel/Madness.xlsx
+++ b/Example Excel/Madness.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suoweihu/Documents/GitHub/Excel-Online-App/Example Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C81062D-4FCC-294C-A377-B9E9EFAB9848}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DE9538-8D63-0C49-9347-CF45C2CDB1B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1520" yWindow="1480" windowWidth="28020" windowHeight="13640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -458,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI152"/>
+  <dimension ref="A1:AI133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="D142" sqref="D142"/>
+      <selection activeCell="D149" sqref="D149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2557,101 +2557,6 @@
         <v>265</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A147">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A148">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A150">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A151">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A152">
-        <v>19</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
